--- a/data.xlsx
+++ b/data.xlsx
@@ -8,30 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomtr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE842312-1133-6641-B2F3-91E8A38598E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B4F5F8-9842-465A-B88A-AFA499382221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="41">
   <si>
     <t>City</t>
   </si>
@@ -48,55 +42,112 @@
     <t>Lng</t>
   </si>
   <si>
-    <t>Ottawa</t>
-  </si>
-  <si>
-    <t>Portage Power</t>
-  </si>
-  <si>
     <t>PP</t>
   </si>
   <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>Dist. Center 1</t>
-  </si>
-  <si>
-    <t>Dist. Center 2</t>
-  </si>
-  <si>
-    <t>Dist. Center 3</t>
-  </si>
-  <si>
-    <t>Dist. Center 4</t>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>FFD700</t>
-  </si>
-  <si>
-    <t>50C878</t>
-  </si>
-  <si>
-    <t>FFF700</t>
-  </si>
-  <si>
-    <t>D1E231</t>
-  </si>
-  <si>
-    <t>000000</t>
-  </si>
-  <si>
-    <t>008080</t>
-  </si>
-  <si>
-    <t>#007FFF</t>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>5L51,5L52</t>
+  </si>
+  <si>
+    <t>2L112</t>
+  </si>
+  <si>
+    <t>BC Hydro</t>
+  </si>
+  <si>
+    <t>Standards Met</t>
+  </si>
+  <si>
+    <t>Standards Not Met</t>
+  </si>
+  <si>
+    <t>CIP-001-2a, CIP-002, CIP-003, CIP-004, CIP-005, CIP-005-3a, CIP-006-3c, CIP-007, CIP-008, CIP-009</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>5L53,5L54</t>
+  </si>
+  <si>
+    <t>2L113</t>
+  </si>
+  <si>
+    <t>2L114</t>
+  </si>
+  <si>
+    <t>2L115</t>
+  </si>
+  <si>
+    <t>2L116</t>
+  </si>
+  <si>
+    <t>2L117</t>
+  </si>
+  <si>
+    <t>5L55,5L56</t>
+  </si>
+  <si>
+    <t>5L52,5L53</t>
+  </si>
+  <si>
+    <t>5L54,5L55</t>
+  </si>
+  <si>
+    <t>5L56,5L57</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Hydro Richmond</t>
+  </si>
+  <si>
+    <t>5S51,5S52</t>
+  </si>
+  <si>
+    <t>2S112</t>
+  </si>
+  <si>
+    <t>5S52,5S53</t>
+  </si>
+  <si>
+    <t>2S113</t>
+  </si>
+  <si>
+    <t>5S53,5S54</t>
+  </si>
+  <si>
+    <t>2S114</t>
+  </si>
+  <si>
+    <t>5S54,5S55</t>
+  </si>
+  <si>
+    <t>2S115</t>
+  </si>
+  <si>
+    <t>5S55,5S56</t>
+  </si>
+  <si>
+    <t>2S116</t>
+  </si>
+  <si>
+    <t>5S56,5S57</t>
+  </si>
+  <si>
+    <t>2S117</t>
+  </si>
+  <si>
+    <t>Something something something something something</t>
   </si>
 </sst>
 </file>
@@ -147,7 +198,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,257 +479,846 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="15.6015625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="5" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="82.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>49.015546999999998</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-122.759846</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>49.015546999999998</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-122.759846</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>49.015546999999998</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-122.759846</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45.421500000000002</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-75.697199999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2019</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>49.015546999999998</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-122.759846</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>49.015546999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-122.759846</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>49.015546999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-122.759846</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>49.015546999999998</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-122.759846</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45.421500000000002</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-75.697199999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>49.015546999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-122.759846</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
         <v>2018</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1">
-        <v>45.421500000000002</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-75.697199999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2017</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1">
-        <v>45.421500000000002</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-75.697199999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2016</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>45.421500000000002</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-75.697199999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2015</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45.421500000000002</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-75.697199999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1">
-        <v>45.439709999999998</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-75.415459999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45.294989999999999</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-75.415109999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>49.015546999999998</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-122.759846</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1">
-        <v>45.295229999999997</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-75.679820000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>45.44164</v>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
       </c>
       <c r="G11" s="1">
-        <v>-75.678790000000006</v>
-      </c>
+        <v>49.015546999999998</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-122.759846</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>49.015546999999998</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-122.759846</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>49.015546999999998</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-122.759846</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>49.035527000000002</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-117.901895</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>49.035527000000002</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-117.901895</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49.035527000000002</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-117.901895</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>49.035527000000002</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-117.901895</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>49.035527000000002</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-117.901895</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>49.035527000000002</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-117.901895</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>49.035527000000002</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-117.901895</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>49.035527000000002</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-117.901895</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>49.035527000000002</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-117.901895</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>49.035527000000002</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-117.901895</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>49.035527000000002</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-117.901895</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>49.035527000000002</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-117.901895</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomtr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B4F5F8-9842-465A-B88A-AFA499382221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16714AE0-CBD0-4CF5-B93A-BB3BBA511347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="20">
   <si>
     <t>City</t>
   </si>
@@ -75,86 +75,23 @@
     <t>Vancouver</t>
   </si>
   <si>
-    <t>5L53,5L54</t>
-  </si>
-  <si>
-    <t>2L113</t>
-  </si>
-  <si>
-    <t>2L114</t>
-  </si>
-  <si>
-    <t>2L115</t>
-  </si>
-  <si>
-    <t>2L116</t>
-  </si>
-  <si>
-    <t>2L117</t>
-  </si>
-  <si>
-    <t>5L55,5L56</t>
-  </si>
-  <si>
-    <t>5L52,5L53</t>
-  </si>
-  <si>
-    <t>5L54,5L55</t>
-  </si>
-  <si>
-    <t>5L56,5L57</t>
-  </si>
-  <si>
     <t>Richmond</t>
   </si>
   <si>
-    <t>Hydro Richmond</t>
-  </si>
-  <si>
-    <t>5S51,5S52</t>
-  </si>
-  <si>
-    <t>2S112</t>
-  </si>
-  <si>
-    <t>5S52,5S53</t>
-  </si>
-  <si>
-    <t>2S113</t>
-  </si>
-  <si>
-    <t>5S53,5S54</t>
-  </si>
-  <si>
-    <t>2S114</t>
-  </si>
-  <si>
-    <t>5S54,5S55</t>
-  </si>
-  <si>
-    <t>2S115</t>
-  </si>
-  <si>
-    <t>5S55,5S56</t>
-  </si>
-  <si>
-    <t>2S116</t>
-  </si>
-  <si>
-    <t>5S56,5S57</t>
-  </si>
-  <si>
-    <t>2S117</t>
-  </si>
-  <si>
     <t>Something something something something something</t>
+  </si>
+  <si>
+    <t>Hydro One</t>
+  </si>
+  <si>
+    <t>Fort Frances East, Fort Frances West</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +109,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -195,10 +139,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,17 +426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="5" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="16.109375" customWidth="1"/>
     <col min="9" max="9" width="82.109375" bestFit="1" customWidth="1"/>
@@ -557,7 +505,7 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -580,16 +528,16 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>49.015546999999998</v>
+        <v>49.035527000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>-122.759846</v>
+        <v>-117.901895</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -603,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -621,7 +569,7 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -635,7 +583,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -644,16 +592,16 @@
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>49.015546999999998</v>
+        <v>49.035527000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>-122.759846</v>
+        <v>-117.901895</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -667,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -685,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -699,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -708,16 +656,16 @@
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>49.015546999999998</v>
+        <v>49.035527000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>-122.759846</v>
+        <v>-117.901895</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -731,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -749,7 +697,7 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -763,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -772,16 +720,16 @@
         <v>5</v>
       </c>
       <c r="G9" s="1">
-        <v>49.015546999999998</v>
+        <v>49.035527000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>-122.759846</v>
+        <v>-117.901895</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -795,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -813,7 +761,7 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -827,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -836,16 +784,16 @@
         <v>5</v>
       </c>
       <c r="G11" s="1">
-        <v>49.015546999999998</v>
+        <v>49.035527000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>-122.759846</v>
+        <v>-117.901895</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -859,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -877,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -891,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -900,30 +848,30 @@
         <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>49.015546999999998</v>
+        <v>49.035527000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>-122.759846</v>
+        <v>-117.901895</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>2014</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -932,30 +880,30 @@
         <v>5</v>
       </c>
       <c r="G14" s="1">
-        <v>49.035527000000002</v>
+        <v>48.603104999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>-117.901895</v>
+        <v>-93.429597999999999</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -964,30 +912,30 @@
         <v>5</v>
       </c>
       <c r="G15" s="1">
-        <v>49.035527000000002</v>
+        <v>48.603104999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>-117.901895</v>
+        <v>-93.429597999999999</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -996,329 +944,138 @@
         <v>5</v>
       </c>
       <c r="G16" s="1">
-        <v>49.035527000000002</v>
+        <v>48.603104999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>-117.901895</v>
+        <v>-93.429597999999999</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="1">
-        <v>49.035527000000002</v>
+        <v>48.603104999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>-117.901895</v>
+        <v>-93.429597999999999</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="1">
-        <v>49.035527000000002</v>
+        <v>48.603104999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>-117.901895</v>
+        <v>-93.429597999999999</v>
       </c>
       <c r="I18" t="s">
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="1">
-        <v>49.035527000000002</v>
+        <v>48.603104999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>-117.901895</v>
+        <v>-93.429597999999999</v>
       </c>
       <c r="I19" t="s">
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1">
-        <v>49.035527000000002</v>
-      </c>
-      <c r="H20" s="1">
-        <v>-117.901895</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>40</v>
-      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1">
-        <v>49.035527000000002</v>
-      </c>
-      <c r="H21" s="1">
-        <v>-117.901895</v>
-      </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>40</v>
-      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2018</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="1">
-        <v>49.035527000000002</v>
-      </c>
-      <c r="H22" s="1">
-        <v>-117.901895</v>
-      </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>40</v>
-      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2018</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="1">
-        <v>49.035527000000002</v>
-      </c>
-      <c r="H23" s="1">
-        <v>-117.901895</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>40</v>
-      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1">
-        <v>49.035527000000002</v>
-      </c>
-      <c r="H24" s="1">
-        <v>-117.901895</v>
-      </c>
-      <c r="I24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>40</v>
-      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>49.035527000000002</v>
-      </c>
-      <c r="H25" s="1">
-        <v>-117.901895</v>
-      </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomtr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16714AE0-CBD0-4CF5-B93A-BB3BBA511347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5860F0A1-8BCE-4B61-B857-1F004C10D540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,7 +531,7 @@
         <v>49.035527000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>-117.901895</v>
+        <v>-121.901895</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -595,7 +595,7 @@
         <v>49.035527000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>-117.901895</v>
+        <v>-121.901895</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -659,7 +659,7 @@
         <v>49.035527000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>-117.901895</v>
+        <v>-121.901895</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -723,7 +723,7 @@
         <v>49.035527000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>-117.901895</v>
+        <v>-121.901895</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -787,7 +787,7 @@
         <v>49.035527000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>-117.901895</v>
+        <v>-121.901895</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -851,7 +851,7 @@
         <v>49.035527000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>-117.901895</v>
+        <v>-121.901895</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
